--- a/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,144 +571,144 @@
         <v>-0.8586676826118136</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.122532365643884</v>
+        <v>-0.1225323656442513</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.5621619986497588</v>
+        <v>-0.5621619986514695</v>
       </c>
       <c r="P2" t="n">
         <v>-0.3303755449345165</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.4032256967956233</v>
+        <v>-0.4032256967959061</v>
       </c>
       <c r="R2" t="n">
         <v>-0.2212005457400724</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3764689325066426</v>
+        <v>-0.376468932506643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4545900128481458</v>
+        <v>0.08618244845655755</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5947805387289807</v>
+        <v>0.1467943333475585</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.443749385920061</v>
+        <v>0.0569973086219619</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4806277707316446</v>
+        <v>0.07395825334550835</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3179141655103364</v>
+        <v>0.07989105031251764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3087169983637105</v>
+        <v>-0.02086593804670473</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8262332674151422</v>
+        <v>0.2910183079126502</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6102768803170537</v>
+        <v>0.1337097935878589</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5864570593903463</v>
+        <v>0.1219640203751881</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2668256032391967</v>
+        <v>-0.01241160296531094</v>
       </c>
       <c r="L3" t="n">
-        <v>1.651352471522358</v>
+        <v>-0.4278668697981196</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.889223969574383</v>
+        <v>0.2935787040282587</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.090657046677659</v>
+        <v>0.2739111747222503</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.9554664570448844</v>
+        <v>0.2820717395316006</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.106539637499872</v>
+        <v>0.2969795002253868</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4015183312907447</v>
+        <v>-0.05932610783264974</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.006687376557121167</v>
+        <v>0.02209145599894322</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1041242242440533</v>
+        <v>0.05992517736492453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08618244845655755</v>
+        <v>-0.4545900128481458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1467943333475585</v>
+        <v>-0.5947805387289807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0569973086219619</v>
+        <v>-0.443749385920061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07395825334550835</v>
+        <v>-0.4806277707316446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07989105031251764</v>
+        <v>-0.3179141655103364</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02086593804670473</v>
+        <v>0.3087169983637105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2910183079126502</v>
+        <v>-0.8262332674151422</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1337097935878589</v>
+        <v>-0.6102768803170537</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1219640203751881</v>
+        <v>-0.5864570593903463</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01241160296531094</v>
+        <v>0.2668256032391967</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4278668697981196</v>
+        <v>1.651352471522358</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2935787040282587</v>
+        <v>-0.889223969574383</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2739111747227583</v>
+        <v>-1.090657046675392</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2820717395339332</v>
+        <v>-0.9554664570345643</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2969795002253868</v>
+        <v>-1.106539637499872</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.05932610782965791</v>
+        <v>0.4015183313032664</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02209145599894322</v>
+        <v>-0.006687376557121167</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05992517736492421</v>
+        <v>-0.1041242242440546</v>
       </c>
     </row>
   </sheetData>
@@ -912,58 +912,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.077232607898698</v>
+        <v>-1.077232607898603</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.126004821682841</v>
+        <v>-1.126004821683045</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.181699597063051</v>
+        <v>-1.18169959706312</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.181873136014426</v>
+        <v>-1.181873136014345</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2547241947531224</v>
+        <v>-0.2547241947525478</v>
       </c>
       <c r="G2" t="n">
-        <v>1.062153367660179</v>
+        <v>1.062153367660011</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5383090061461434</v>
+        <v>-0.5383090061463784</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.228880537516284</v>
+        <v>-1.228880537516433</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.219194134468025</v>
+        <v>-1.219194134468175</v>
       </c>
       <c r="K2" t="n">
-        <v>1.045816655402946</v>
+        <v>1.045816655402755</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6973599254628438</v>
+        <v>0.6973599254627683</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5790805714366917</v>
+        <v>-0.5790805714368362</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5830510295908662</v>
+        <v>-0.5830510295890806</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.627492848141213</v>
+        <v>-0.6274928481419948</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6682001889957346</v>
+        <v>-0.6682001889953337</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08306922094355067</v>
+        <v>0.08306922094391238</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07975572910503187</v>
+        <v>0.07975572910559481</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3009698343870092</v>
+        <v>0.3009698343867548</v>
       </c>
     </row>
     <row r="3">
@@ -973,58 +973,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5030517754395509</v>
+        <v>0.5030517754394263</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6567630011562231</v>
+        <v>0.6567630011564398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5438815292351685</v>
+        <v>0.5438815292352644</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5462775601479013</v>
+        <v>0.5462775601478281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1497108106588391</v>
+        <v>0.1497108106582208</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4959452660227641</v>
+        <v>-0.4959452660226367</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7937437631268428</v>
+        <v>0.793743763127427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6826599410441687</v>
+        <v>0.6826599410443854</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6674799962495053</v>
+        <v>0.6674799962496925</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.475138678799352</v>
+        <v>-0.4751386787991779</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7091554840919664</v>
+        <v>-0.7091554840913062</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8026273372612444</v>
+        <v>0.8026273372616097</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7257854834129719</v>
+        <v>0.7257854834114383</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7970835686540667</v>
+        <v>0.7970835686539254</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8552228046939486</v>
+        <v>0.8552228046952093</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.08613450334254848</v>
+        <v>-0.08613450334468394</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2216069891915439</v>
+        <v>0.2216069891905525</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01286117409769948</v>
+        <v>0.01286117409838938</v>
       </c>
     </row>
     <row r="4">
@@ -1034,58 +1034,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5100969412802188</v>
+        <v>0.5100969412803128</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3076921034923535</v>
+        <v>0.3076921034922412</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5732646292311061</v>
+        <v>0.5732646292310303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5693598757637103</v>
+        <v>0.5693598757637335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06764563049432289</v>
+        <v>0.06764563049465373</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5030680116376872</v>
+        <v>-0.5030680116376913</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6791638619761577</v>
+        <v>-0.6791638619768631</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3945441216947398</v>
+        <v>0.3945441216945575</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4083102893905527</v>
+        <v>0.4083102893904225</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5180268906382119</v>
+        <v>-0.5180268906382686</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3302523178447525</v>
+        <v>0.3302523178437113</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6423663506697084</v>
+        <v>-0.6423663506701521</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5049542391784592</v>
+        <v>-0.5049542391780876</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.5709586178348927</v>
+        <v>-0.5709586178336695</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6190723665894747</v>
+        <v>-0.6190723665921577</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0421987512176324</v>
+        <v>0.04219875122083703</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4835665796863111</v>
+        <v>-0.4835665796853229</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.4067223659961052</v>
+        <v>-0.4067223659969683</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.353477991960751</v>
+        <v>1.353477991961333</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.315531514120625</v>
+        <v>1.315531514121175</v>
       </c>
     </row>
     <row r="4">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.181362558745871</v>
+        <v>1.181362558745971</v>
       </c>
     </row>
     <row r="5">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.177967796691271</v>
+        <v>1.17796779669109</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.060865403697924</v>
+        <v>1.060865403698569</v>
       </c>
     </row>
     <row r="7">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.884841594889365</v>
+        <v>0.8848415948892421</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8482873877679238</v>
+        <v>0.8482873877675846</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8272299979879131</v>
+        <v>0.8272299979875792</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7611660120023763</v>
+        <v>0.7611660120051663</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6486785899400341</v>
+        <v>0.6486785899416025</v>
       </c>
     </row>
     <row r="12">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6424006179382642</v>
+        <v>0.6424006179392318</v>
       </c>
     </row>
     <row r="13">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6179738909561688</v>
+        <v>0.6179738909561804</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4990663881764288</v>
+        <v>0.4990663881754026</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4702900293344033</v>
+        <v>0.4702900293312332</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06540277732572862</v>
+        <v>0.06540277732525418</v>
       </c>
     </row>
     <row r="17">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05975164751369409</v>
+        <v>0.05975164751387294</v>
       </c>
     </row>
     <row r="18">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01232289517266604</v>
+        <v>0.01232289517257228</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0008792900866350321</v>
+        <v>0.0008792900866852957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -531,184 +531,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2511635900743481</v>
+        <v>0.08618244845655755</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03894939945829519</v>
+        <v>0.1467943333475585</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5381774702749632</v>
+        <v>0.0569973086219619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4508830677707736</v>
+        <v>0.07395825334550835</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03624651304831423</v>
+        <v>0.07989105031251764</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5773120648412225</v>
+        <v>-0.02086593804670473</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.9947912301772538</v>
+        <v>0.2910183079126502</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1426541180754681</v>
+        <v>0.1337097935878589</v>
       </c>
       <c r="J2" t="n">
-        <v>0.207576934362877</v>
+        <v>0.1219640203751881</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.5597012563965501</v>
+        <v>-0.01241160296531094</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3274457678615569</v>
+        <v>-0.4278668697981196</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8586676826118136</v>
+        <v>0.2935787040282587</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1225323656442513</v>
+        <v>0.2739111747227583</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.5621619986514695</v>
+        <v>0.2820717395339332</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3303755449345165</v>
+        <v>0.2969795002253868</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.4032256967959061</v>
+        <v>-0.05932610782965791</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2212005457400724</v>
+        <v>0.02209145599894322</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.376468932506643</v>
+        <v>0.05992517736492421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08618244845655755</v>
+        <v>-0.4545900128481458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1467943333475585</v>
+        <v>-0.5947805387289807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0569973086219619</v>
+        <v>-0.443749385920061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07395825334550835</v>
+        <v>-0.4806277707316446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07989105031251764</v>
+        <v>-0.3179141655103364</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.02086593804670473</v>
+        <v>0.3087169983637105</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2910183079126502</v>
+        <v>-0.8262332674151422</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1337097935878589</v>
+        <v>-0.6102768803170537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1219640203751881</v>
+        <v>-0.5864570593903463</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01241160296531094</v>
+        <v>0.2668256032391967</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4278668697981196</v>
+        <v>1.651352471522358</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2935787040282587</v>
+        <v>-0.889223969574383</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2739111747222503</v>
+        <v>-1.090657046677659</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2820717395316006</v>
+        <v>-0.9554664570448844</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2969795002253868</v>
+        <v>-1.106539637499872</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.05932610783264974</v>
+        <v>0.4015183312907447</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02209145599894322</v>
+        <v>-0.006687376557121167</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05992517736492453</v>
+        <v>-0.1041242242440533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4545900128481458</v>
+        <v>0.2511635900743481</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5947805387289807</v>
+        <v>-0.03894939945829519</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.443749385920061</v>
+        <v>0.5381774702749632</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4806277707316446</v>
+        <v>0.4508830677707736</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3179141655103364</v>
+        <v>-0.03624651304831423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3087169983637105</v>
+        <v>-0.5773120648412225</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.8262332674151422</v>
+        <v>-0.9947912301772538</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6102768803170537</v>
+        <v>0.1426541180754681</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5864570593903463</v>
+        <v>0.207576934362877</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2668256032391967</v>
+        <v>-0.5597012563965501</v>
       </c>
       <c r="L4" t="n">
-        <v>1.651352471522358</v>
+        <v>0.3274457678615569</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.889223969574383</v>
+        <v>-0.8586676826118136</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.090657046675392</v>
+        <v>-0.122532365643884</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.9554664570345643</v>
+        <v>-0.5621619986497588</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.106539637499872</v>
+        <v>-0.3303755449345165</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4015183313032664</v>
+        <v>-0.4032256967956233</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.006687376557121167</v>
+        <v>-0.2212005457400724</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1041242242440546</v>
+        <v>-0.3764689325066426</v>
       </c>
     </row>
   </sheetData>
@@ -912,58 +912,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.077232607898603</v>
+        <v>-1.077232607898698</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.126004821683045</v>
+        <v>-1.126004821682841</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.18169959706312</v>
+        <v>-1.181699597063051</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.181873136014345</v>
+        <v>-1.181873136014426</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2547241947525478</v>
+        <v>-0.2547241947531224</v>
       </c>
       <c r="G2" t="n">
-        <v>1.062153367660011</v>
+        <v>1.062153367660179</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5383090061463784</v>
+        <v>-0.5383090061461434</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.228880537516433</v>
+        <v>-1.228880537516284</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.219194134468175</v>
+        <v>-1.219194134468025</v>
       </c>
       <c r="K2" t="n">
-        <v>1.045816655402755</v>
+        <v>1.045816655402946</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6973599254627683</v>
+        <v>0.6973599254628438</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5790805714368362</v>
+        <v>-0.5790805714366917</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5830510295890806</v>
+        <v>-0.5830510295908662</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.6274928481419948</v>
+        <v>-0.627492848141213</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.6682001889953337</v>
+        <v>-0.6682001889957346</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08306922094391238</v>
+        <v>0.08306922094355067</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07975572910559481</v>
+        <v>0.07975572910503187</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3009698343867548</v>
+        <v>0.3009698343870092</v>
       </c>
     </row>
     <row r="3">
@@ -973,58 +973,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5030517754394263</v>
+        <v>0.5030517754395509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6567630011564398</v>
+        <v>0.6567630011562231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5438815292352644</v>
+        <v>0.5438815292351685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5462775601478281</v>
+        <v>0.5462775601479013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1497108106582208</v>
+        <v>0.1497108106588391</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4959452660226367</v>
+        <v>-0.4959452660227641</v>
       </c>
       <c r="H3" t="n">
-        <v>0.793743763127427</v>
+        <v>0.7937437631268428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6826599410443854</v>
+        <v>0.6826599410441687</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6674799962496925</v>
+        <v>0.6674799962495053</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4751386787991779</v>
+        <v>-0.475138678799352</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.7091554840913062</v>
+        <v>-0.7091554840919664</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8026273372616097</v>
+        <v>0.8026273372612444</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7257854834114383</v>
+        <v>0.7257854834129719</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7970835686539254</v>
+        <v>0.7970835686540667</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8552228046952093</v>
+        <v>0.8552228046939486</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.08613450334468394</v>
+        <v>-0.08613450334254848</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2216069891905525</v>
+        <v>0.2216069891915439</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01286117409838938</v>
+        <v>0.01286117409769948</v>
       </c>
     </row>
     <row r="4">
@@ -1034,58 +1034,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5100969412803128</v>
+        <v>0.5100969412802188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3076921034922412</v>
+        <v>0.3076921034923535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5732646292310303</v>
+        <v>0.5732646292311061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5693598757637335</v>
+        <v>0.5693598757637103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06764563049465373</v>
+        <v>0.06764563049432289</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5030680116376913</v>
+        <v>-0.5030680116376872</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6791638619768631</v>
+        <v>-0.6791638619761577</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3945441216945575</v>
+        <v>0.3945441216947398</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4083102893904225</v>
+        <v>0.4083102893905527</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5180268906382686</v>
+        <v>-0.5180268906382119</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3302523178437113</v>
+        <v>0.3302523178447525</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.6423663506701521</v>
+        <v>-0.6423663506697084</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5049542391780876</v>
+        <v>-0.5049542391784592</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.5709586178336695</v>
+        <v>-0.5709586178348927</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6190723665921577</v>
+        <v>-0.6190723665894747</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04219875122083703</v>
+        <v>0.0421987512176324</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4835665796853229</v>
+        <v>-0.4835665796863111</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.4067223659969683</v>
+        <v>-0.4067223659961052</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.353477991961333</v>
+        <v>1.353477991960751</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.315531514121175</v>
+        <v>1.315531514120625</v>
       </c>
     </row>
     <row r="4">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.181362558745971</v>
+        <v>1.181362558745871</v>
       </c>
     </row>
     <row r="5">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.17796779669109</v>
+        <v>1.177967796691271</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.060865403698569</v>
+        <v>1.060865403697924</v>
       </c>
     </row>
     <row r="7">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8848415948892421</v>
+        <v>0.884841594889365</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8482873877675846</v>
+        <v>0.8482873877679238</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8272299979875792</v>
+        <v>0.8272299979879131</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7611660120051663</v>
+        <v>0.7611660120023763</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6486785899416025</v>
+        <v>0.6486785899400341</v>
       </c>
     </row>
     <row r="12">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6424006179392318</v>
+        <v>0.6424006179382642</v>
       </c>
     </row>
     <row r="13">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6179738909561804</v>
+        <v>0.6179738909561688</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4990663881754026</v>
+        <v>0.4990663881764288</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4702900293312332</v>
+        <v>0.4702900293344033</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06540277732525418</v>
+        <v>0.06540277732572862</v>
       </c>
     </row>
     <row r="17">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05975164751387294</v>
+        <v>0.05975164751369409</v>
       </c>
     </row>
     <row r="18">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01232289517257228</v>
+        <v>0.01232289517266604</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0008792900866852957</v>
+        <v>0.0008792900866350321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Pattern_Cluster_Matrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cluster_Centers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Feature_Importance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Polygons_Original" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Polygons_Cluster" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classification_Compare" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Accuracy_Summary" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,180 +539,180 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08618244845655755</v>
+        <v>0.1845555635019828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1467943333475585</v>
+        <v>0.2365807895737166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0569973086219619</v>
+        <v>0.1797285861491649</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07395825334550835</v>
+        <v>0.1964631014660568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07989105031251764</v>
+        <v>0.1213008554575875</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02086593804670473</v>
+        <v>-0.1428580536955912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2910183079126502</v>
+        <v>0.3736936071260662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1337097935878589</v>
+        <v>0.2594257709940694</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1219640203751881</v>
+        <v>0.2411397769484003</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.01241160296531094</v>
+        <v>-0.1406829209698739</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4278668697981196</v>
+        <v>-0.4725610658153445</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2935787040282587</v>
+        <v>0.3831982882099683</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2739111747227583</v>
+        <v>0.3465578512040389</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2820717395339332</v>
+        <v>0.3971573133562155</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2969795002253868</v>
+        <v>0.4048289022169145</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.05932610782965791</v>
+        <v>-0.03361955340462267</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02209145599894322</v>
+        <v>0.00838577293847895</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05992517736492421</v>
+        <v>0.03494300274961253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4545900128481458</v>
+        <v>-0.4127906924749205</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5947805387289807</v>
+        <v>-0.4816046337703221</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.443749385920061</v>
+        <v>-0.4061748088068231</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4806277707316446</v>
+        <v>-0.4599789022519721</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3179141655103364</v>
+        <v>-0.2653821116325841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3087169983637105</v>
+        <v>0.4111888842523807</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8262332674151422</v>
+        <v>-1.021710142781475</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6102768803170537</v>
+        <v>-0.6497499785905058</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5864570593903463</v>
+        <v>-0.5569200346456895</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2668256032391967</v>
+        <v>0.4848131029088729</v>
       </c>
       <c r="L3" t="n">
-        <v>1.651352471522358</v>
+        <v>0.2869709696542518</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.889223969574383</v>
+        <v>-0.99845751022767</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.090657046677659</v>
+        <v>-0.2848553064191903</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.9554664570448844</v>
+        <v>-0.869259130629746</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.106539637499872</v>
+        <v>-0.6534815989236812</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4015183312907447</v>
+        <v>-0.4959478446489645</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.006687376557121167</v>
+        <v>0.09367045699993944</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1041242242440533</v>
+        <v>0.05407660665928993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2511635900743481</v>
+        <v>-0.4623726389167765</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03894939945829519</v>
+        <v>-0.6117328310425122</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5381774702749632</v>
+        <v>-0.4486072693844336</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4508830677707736</v>
+        <v>-0.4839829840838082</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03624651304831423</v>
+        <v>-0.3062700639027632</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5773120648412225</v>
+        <v>0.3212418288640625</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.9947912301772538</v>
+        <v>-0.8618742071160355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1426541180754681</v>
+        <v>-0.6221476299436322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.207576934362877</v>
+        <v>-0.5971072277662829</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.5597012563965501</v>
+        <v>0.284396690134023</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3274457678615569</v>
+        <v>1.491919235910469</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.8586676826118136</v>
+        <v>-0.9034911758228297</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.122532365643884</v>
+        <v>-1.06435457152606</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.5621619986497588</v>
+        <v>-1.002631213159227</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3303755449345165</v>
+        <v>-1.115025627968039</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4032256967956233</v>
+        <v>0.3126856194353053</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2212005457400724</v>
+        <v>-0.06597981079080452</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3764689325066426</v>
+        <v>-0.1404368520123985</v>
       </c>
     </row>
   </sheetData>
@@ -753,13 +757,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.21739130434783</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="C2" t="n">
-        <v>96.7741935483871</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>55.55555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +773,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="C3" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="4">
@@ -785,13 +789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.78260869565217</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.77777777777778</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1356,4 +1360,4528 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>gridiron_alto_intersection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Patrón</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Exactitud (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>70.83333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,58 +539,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1845555635019828</v>
+        <v>0.3238236736252197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2365807895737166</v>
+        <v>0.4178758251790682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1797285861491649</v>
+        <v>0.358032052703307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1964631014660568</v>
+        <v>0.3844738708108548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1213008554575875</v>
+        <v>0.2149557553214036</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1428580536955912</v>
+        <v>-0.3722134082486955</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3736936071260662</v>
+        <v>0.6603579724235458</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2594257709940694</v>
+        <v>0.4969440131377365</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2411397769484003</v>
+        <v>0.4679989074577204</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1406829209698739</v>
+        <v>-0.366651424920885</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4725610658153445</v>
+        <v>-0.6624077315529296</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3831982882099683</v>
+        <v>0.6681226560397648</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3465578512040389</v>
+        <v>0.4128214867939448</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3971573133562155</v>
+        <v>0.4967842412571994</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4048289022169145</v>
+        <v>0.4969486623682837</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.03361955340462267</v>
+        <v>-0.007757674456255859</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00838577293847895</v>
+        <v>-0.1135975180024114</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03494300274961253</v>
+        <v>-0.2502548336099495</v>
       </c>
     </row>
     <row r="3">
@@ -600,119 +600,180 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4127906924749205</v>
+        <v>-0.2862065809920072</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4816046337703221</v>
+        <v>-0.4778238072392763</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4061748088068231</v>
+        <v>-0.2774353208982444</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4599789022519721</v>
+        <v>-0.2829750738703348</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2653821116325841</v>
+        <v>-0.03088499428323895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4111888842523807</v>
+        <v>0.1464438393288017</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.021710142781475</v>
+        <v>-0.8164395406189076</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6497499785905058</v>
+        <v>-0.4874515098689486</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5569200346456895</v>
+        <v>-0.4285007991155906</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4848131029088729</v>
+        <v>0.1278338313100774</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2869709696542518</v>
+        <v>0.3060268640667715</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.99845751022767</v>
+        <v>-0.6978253888131017</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2848553064191903</v>
+        <v>-0.5594349938582981</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.869259130629746</v>
+        <v>-0.7915712390168783</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6534815989236812</v>
+        <v>-0.7966926487573548</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.4959478446489645</v>
+        <v>-0.1513708406845396</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09367045699993944</v>
+        <v>-0.2467866222391903</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05407660665928993</v>
+        <v>-0.3764689325066426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3855309759687427</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.4500992767292789</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.4513781636280281</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.4863952468183965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3046354297120494</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5781289960554779</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.6848152145958604</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.5946541059198899</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.5557427209005708</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5811516988816262</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3072342174205527</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.7034934426042735</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.07540466743800177</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.4589092339101555</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.2610258328262385</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3735000194286626</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.276638810389097</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6524254512632242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.4623726389167765</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6117328310425122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.4486072693844336</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.4839829840838082</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.3062700639027632</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3212418288640625</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.8618742071160355</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.6221476299436322</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-0.5971072277662829</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.284396690134023</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.491919235910469</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.9034911758228297</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-1.06435457152606</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-1.002631213159227</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-1.115025627968039</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3126856194353053</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.06597981079080452</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.1404368520123985</v>
+      <c r="B5" t="n">
+        <v>-0.3720956234260289</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.4978285560341791</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3858732059381821</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.4234589855213339</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2705063222127141</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2668189641368515</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.7958796363051306</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.5216604897091772</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.5281676490591705</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2495043811340258</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.148981952444177</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.8921884747922795</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.292310357479979</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.5771908812952966</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.043463725624349</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.056360985409266</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09850933029664</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03138967115958546</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,49 +814,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>43.47826086956522</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="D2" t="n">
-        <v>55.55555555555556</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>17.39130434782609</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="D3" t="n">
-        <v>11.11111111111111</v>
+        <v>38.88888888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17.39130434782609</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.66666666666666</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.33333333333333</v>
+      <c r="B5" t="n">
+        <v>21.73913043478261</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.66666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1557,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1609,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1635,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1687,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1778,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1791,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1804,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1817,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1843,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1856,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2103,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2116,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2155,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2194,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2207,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2246,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2285,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2311,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2324,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2337,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2350,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2363,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2387,12 +2464,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2490,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2511,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2532,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2548,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2492,12 +2569,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2595,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2611,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2637,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2658,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2674,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2700,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2721,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2742,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2758,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2784,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2805,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2826,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2842,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2868,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2889,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2910,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2931,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2952,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -2891,12 +2968,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2989,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2933,12 +3010,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2959,7 +3036,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2980,7 +3057,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3078,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3022,7 +3099,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3120,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3141,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3162,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3183,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3204,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3225,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3164,12 +3241,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3185,12 +3262,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3206,12 +3283,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3309,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3330,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3351,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3372,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3393,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3332,12 +3409,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3430,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3456,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3395,12 +3472,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3493,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3519,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3540,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3561,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3582,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3603,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3619,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3640,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3666,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3605,12 +3682,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3626,12 +3703,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3729,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3750,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3694,7 +3771,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3792,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3813,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3752,12 +3829,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3855,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3876,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3897,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron_bajo_intersection</t>
         </is>
       </c>
     </row>
@@ -3836,12 +3913,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3939,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3960,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>gridiron_alto_intersection</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3947,20 +4024,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4051,20 +4128,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4077,20 +4154,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4180,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4134,15 +4211,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4284,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="b">
@@ -4259,7 +4336,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4268,11 +4345,11 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4393,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -4363,7 +4440,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4420,7 +4497,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -4545,7 +4622,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4571,12 +4648,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -4597,20 +4674,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4623,20 +4700,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4752,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4684,11 +4761,11 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4778,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4710,11 +4787,11 @@
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4914,7 +4991,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -4940,15 +5017,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4966,15 +5043,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5122,15 +5199,15 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5225,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -5195,12 +5272,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="b">
@@ -5221,12 +5298,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -5299,7 +5376,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5308,11 +5385,11 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5377,20 +5454,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5403,12 +5480,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="b">
@@ -5460,7 +5537,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -5481,20 +5558,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5636,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5568,11 +5645,11 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5688,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5620,11 +5697,11 @@
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5637,20 +5714,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5740,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5672,11 +5749,11 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5766,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5715,7 +5792,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5746,7 +5823,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -5821,7 +5898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5848,7 +5925,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>89.47368421052632</v>
       </c>
     </row>
     <row r="3">
@@ -5858,26 +5935,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.83333333333334</v>
+        <v>61.11111111111111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.63157894736842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Salt_Lake_UT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,184 +535,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3238236736252197</v>
+        <v>-0.2640154867002479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4178758251790682</v>
+        <v>-0.2978956977994266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.358032052703307</v>
+        <v>-0.3318290296012958</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3844738708108548</v>
+        <v>-0.3912893153624079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2149557553214036</v>
+        <v>-0.3166984340912645</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3722134082486955</v>
+        <v>0.6171797732427486</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6603579724235458</v>
+        <v>-0.7243190596060001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4969440131377365</v>
+        <v>-0.506725287673647</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4679989074577204</v>
+        <v>-0.4650388389340119</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.366651424920885</v>
+        <v>0.6745579468836773</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.6624077315529296</v>
+        <v>0.2474006628904773</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6681226560397648</v>
+        <v>-0.7411095187555062</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4128214867939448</v>
+        <v>0.08022917929760949</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4967842412571994</v>
+        <v>-0.1928345952783761</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4969486623682837</v>
+        <v>-0.04834371418178616</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.007757674456255859</v>
+        <v>-0.2930863489788525</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1135975180024114</v>
+        <v>0.321872909358094</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2502548336099495</v>
+        <v>0.8748074791593752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2862065809920072</v>
+        <v>0.3269946096666113</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4778238072392763</v>
+        <v>0.4147205863061056</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2774353208982444</v>
+        <v>0.3625150093091062</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2829750738703348</v>
+        <v>0.3899771221235499</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03088499428323895</v>
+        <v>0.2165971972117926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1464438393288017</v>
+        <v>-0.3793268756912684</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8164395406189076</v>
+        <v>0.6137520077075949</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4874515098689486</v>
+        <v>0.4889031881065841</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4285007991155906</v>
+        <v>0.4652705618610432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1278338313100774</v>
+        <v>-0.3697600608715233</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3060268640667715</v>
+        <v>-0.6395475310333817</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.6978253888131017</v>
+        <v>0.6252635578634038</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.5594349938582981</v>
+        <v>0.3971332361870065</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.7915712390168783</v>
+        <v>0.483737431832091</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.7966926487573548</v>
+        <v>0.4812428377988394</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1513708406845396</v>
+        <v>-0.003790842286363157</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.2467866222391903</v>
+        <v>-0.1247723051460675</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3764689325066426</v>
+        <v>-0.2534910925560186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3855309759687427</v>
+        <v>-0.7977990790862554</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4500992767292789</v>
+        <v>-0.9679143454419941</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4513781636280281</v>
+        <v>-0.8723460497787446</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4863952468183965</v>
+        <v>-0.8271432114529359</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3046354297120494</v>
+        <v>-0.1863805853902083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5781289960554779</v>
+        <v>0.3938527914485669</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.6848152145958604</v>
+        <v>-0.4013867849581986</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.5946541059198899</v>
+        <v>-0.8915159901979116</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5557427209005708</v>
+        <v>-0.8751968488934212</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5811516988816262</v>
+        <v>0.2053463539392362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3072342174205527</v>
+        <v>0.3860791195485231</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.7034934426042735</v>
+        <v>-0.3694256826228868</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.07540466743800177</v>
+        <v>-0.5804618069462104</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4589092339101555</v>
+        <v>-1.207332685311564</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2610258328262385</v>
+        <v>-0.9421644899763737</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.3735000194286626</v>
+        <v>-0.5219549549046619</v>
       </c>
       <c r="R4" t="n">
-        <v>0.276638810389097</v>
+        <v>0.1403419594893119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6524254512632242</v>
+        <v>-0.2464944130671085</v>
       </c>
     </row>
     <row r="5">
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3720956234260289</v>
+        <v>-0.3338135834980527</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4978285560341791</v>
+        <v>-0.491515110524569</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3858732059381821</v>
+        <v>-0.327214468363606</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4234589855213339</v>
+        <v>-0.3647423969720644</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2705063222127141</v>
+        <v>-0.2148775556291403</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2668189641368515</v>
+        <v>0.264411233718909</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7958796363051306</v>
+        <v>-0.8886018080630845</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5216604897091772</v>
+        <v>-0.5097707566553819</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5281676490591705</v>
+        <v>-0.4932323529341622</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2495043811340258</v>
+        <v>0.2558495872582378</v>
       </c>
       <c r="L5" t="n">
-        <v>2.148981952444177</v>
+        <v>1.576239087471131</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.8921884747922795</v>
+        <v>-0.921006823300243</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.292310357479979</v>
+        <v>-1.100738588256682</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.5771908812952966</v>
+        <v>-0.7274370667005351</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.043463725624349</v>
+        <v>-1.032527335130811</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.056360985409266</v>
+        <v>0.63965565110658</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09850933029664</v>
+        <v>-0.06700212471755455</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.03138967115958546</v>
+        <v>-0.1464160916086045</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.47826086956522</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="C2" t="n">
-        <v>12.90322580645161</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="D2" t="n">
         <v>27.77777777777778</v>
@@ -840,7 +840,7 @@
         <v>87.09677419354838</v>
       </c>
       <c r="D3" t="n">
-        <v>38.88888888888889</v>
+        <v>44.44444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.39130434782609</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="D4" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.73913043478261</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>16.66666666666666</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4163,11 +4163,11 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4709,11 +4709,11 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5723,11 +5723,11 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -5749,11 +5749,11 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.47368421052632</v>
+        <v>89.74358974358975</v>
       </c>
     </row>
     <row r="3">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.11111111111111</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.63157894736842</v>
+        <v>46.66666666666666</v>
       </c>
     </row>
     <row r="5">
